--- a/biology/Zoologie/Gerbille_de_Harrison/Gerbille_de_Harrison.xlsx
+++ b/biology/Zoologie/Gerbille_de_Harrison/Gerbille_de_Harrison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus mesopotamiae
-La Gerbille de Harrison[1] (Gerbillus mesopotamiae ou Gerbillus (Hendecapleura) mesopotamiae) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui fréquente les vallées du Tigre de l'Euphrate et du Karoun au Moyen-Orient.
+La Gerbille de Harrison (Gerbillus mesopotamiae ou Gerbillus (Hendecapleura) mesopotamiae) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui fréquente les vallées du Tigre de l'Euphrate et du Karoun au Moyen-Orient.
 </t>
         </is>
       </c>
